--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value370.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value370.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9174155309971554</v>
+        <v>1.032830953598022</v>
       </c>
       <c r="B1">
-        <v>1.976981473207391</v>
+        <v>3.426476955413818</v>
       </c>
       <c r="C1">
-        <v>2.776317991168038</v>
+        <v>3.533007621765137</v>
       </c>
       <c r="D1">
-        <v>2.54104835366453</v>
+        <v>2.039578914642334</v>
       </c>
       <c r="E1">
-        <v>0.9403673345925944</v>
+        <v>1.17303478717804</v>
       </c>
     </row>
   </sheetData>
